--- a/Oil price information/2560.xlsx
+++ b/Oil price information/2560.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\OVERFLOW-PSIT\Oil price information\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C2FD828-1F51-493B-BF81-F59D787FDF4A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50A081B9-5D50-4E0F-84B0-046BE175F2E2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="468" windowWidth="33600" windowHeight="19452" activeTab="1" xr2:uid="{AE01BACC-D742-6B4E-AA39-DC40F97CACB1}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="38">
   <si>
     <t>วว/ดด/ปป</t>
   </si>
@@ -137,6 +137,9 @@
   </si>
   <si>
     <t>Dec</t>
+  </si>
+  <si>
+    <t>Ultra Force Diesel</t>
   </si>
 </sst>
 </file>
@@ -535,6 +538,21 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -569,21 +587,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -967,14 +970,14 @@
         <v>26.69</v>
       </c>
       <c r="G2" s="22"/>
-      <c r="H2" s="34" t="s">
+      <c r="H2" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="36"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="41"/>
     </row>
     <row r="3" spans="1:13" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A3" s="2">
@@ -996,12 +999,12 @@
         <v>26.69</v>
       </c>
       <c r="G3" s="3"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38"/>
-      <c r="M3" s="39"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="43"/>
+      <c r="K3" s="43"/>
+      <c r="L3" s="43"/>
+      <c r="M3" s="44"/>
     </row>
     <row r="4" spans="1:13" ht="18" thickBot="1">
       <c r="A4" s="2">
@@ -1045,14 +1048,14 @@
         <v>26.69</v>
       </c>
       <c r="G5" s="3"/>
-      <c r="H5" s="40" t="s">
+      <c r="H5" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="41"/>
-      <c r="J5" s="41"/>
-      <c r="K5" s="41"/>
-      <c r="L5" s="41"/>
-      <c r="M5" s="42"/>
+      <c r="I5" s="46"/>
+      <c r="J5" s="46"/>
+      <c r="K5" s="46"/>
+      <c r="L5" s="46"/>
+      <c r="M5" s="47"/>
     </row>
     <row r="6" spans="1:13" ht="18.899999999999999" customHeight="1" thickBot="1">
       <c r="A6" s="2">
@@ -1074,12 +1077,12 @@
         <v>26.69</v>
       </c>
       <c r="G6" s="3"/>
-      <c r="H6" s="43"/>
-      <c r="I6" s="44"/>
-      <c r="J6" s="44"/>
-      <c r="K6" s="44"/>
-      <c r="L6" s="44"/>
-      <c r="M6" s="45"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="49"/>
+      <c r="J6" s="49"/>
+      <c r="K6" s="49"/>
+      <c r="L6" s="49"/>
+      <c r="M6" s="50"/>
     </row>
     <row r="7" spans="1:13" ht="18" thickBot="1">
       <c r="A7" s="2">
@@ -1714,14 +1717,14 @@
         <v>26.39</v>
       </c>
       <c r="G22" s="3"/>
-      <c r="H22" s="40" t="s">
+      <c r="H22" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="I22" s="41"/>
-      <c r="J22" s="41"/>
-      <c r="K22" s="41"/>
-      <c r="L22" s="41"/>
-      <c r="M22" s="42"/>
+      <c r="I22" s="46"/>
+      <c r="J22" s="46"/>
+      <c r="K22" s="46"/>
+      <c r="L22" s="46"/>
+      <c r="M22" s="47"/>
     </row>
     <row r="23" spans="1:14" ht="18" thickBot="1">
       <c r="A23" s="2">
@@ -1743,12 +1746,12 @@
         <v>26.39</v>
       </c>
       <c r="G23" s="3"/>
-      <c r="H23" s="43"/>
-      <c r="I23" s="44"/>
-      <c r="J23" s="44"/>
-      <c r="K23" s="44"/>
-      <c r="L23" s="44"/>
-      <c r="M23" s="45"/>
+      <c r="H23" s="48"/>
+      <c r="I23" s="49"/>
+      <c r="J23" s="49"/>
+      <c r="K23" s="49"/>
+      <c r="L23" s="49"/>
+      <c r="M23" s="50"/>
     </row>
     <row r="24" spans="1:14" ht="18" thickBot="1">
       <c r="A24" s="2">
@@ -8887,7 +8890,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8898,7 +8901,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.6" thickBot="1">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="38" t="s">
         <v>24</v>
       </c>
       <c r="B1" s="6" t="s">
@@ -8914,30 +8917,30 @@
         <v>4</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="46">
+      <c r="B2" s="34">
         <f>AVERAGE('2560'!B2:B32)</f>
         <v>27.438064516129028</v>
       </c>
-      <c r="C2" s="46">
+      <c r="C2" s="34">
         <f>AVERAGE('2560'!C2:C32)</f>
         <v>27.708064516129028</v>
       </c>
-      <c r="D2" s="46">
+      <c r="D2" s="34">
         <f>AVERAGE('2560'!D2:D32)</f>
         <v>25.198064516129026</v>
       </c>
-      <c r="E2" s="46">
+      <c r="E2" s="34">
         <f>AVERAGE('2560'!E2:E32)</f>
         <v>20.044838709677411</v>
       </c>
-      <c r="F2" s="47">
+      <c r="F2" s="35">
         <f>AVERAGE('2560'!F2:F32)</f>
         <v>26.506129032258059</v>
       </c>
@@ -8962,7 +8965,7 @@
         <f>AVERAGE('2560'!E33:E61)</f>
         <v>20.200344827586214</v>
       </c>
-      <c r="F3" s="48">
+      <c r="F3" s="36">
         <f>AVERAGE('2560'!F33:F61)</f>
         <v>26.569310344827588</v>
       </c>
@@ -8987,7 +8990,7 @@
         <f>AVERAGE('2560'!E62:E92)</f>
         <v>19.56258064516128</v>
       </c>
-      <c r="F4" s="48">
+      <c r="F4" s="36">
         <f>AVERAGE('2560'!F62:F92)</f>
         <v>25.799677419354843</v>
       </c>
@@ -9012,7 +9015,7 @@
         <f>AVERAGE('2560'!E93:E122)</f>
         <v>19.660000000000007</v>
       </c>
-      <c r="F5" s="48">
+      <c r="F5" s="36">
         <f>AVERAGE('2560'!F93:F122)</f>
         <v>25.570000000000004</v>
       </c>
@@ -9037,7 +9040,7 @@
         <f>AVERAGE('2560'!E123:E153)</f>
         <v>19.820645161290312</v>
       </c>
-      <c r="F6" s="48">
+      <c r="F6" s="36">
         <f>AVERAGE('2560'!F123:F153)</f>
         <v>25.01580645161291</v>
       </c>
@@ -9062,7 +9065,7 @@
         <f>AVERAGE('2560'!E154:E183)</f>
         <v>19.336666666666677</v>
       </c>
-      <c r="F7" s="48">
+      <c r="F7" s="36">
         <f>AVERAGE('2560'!F154:F183)</f>
         <v>24.17</v>
       </c>
@@ -9087,7 +9090,7 @@
         <f>AVERAGE('2560'!E184:E214)</f>
         <v>19.33677419354839</v>
       </c>
-      <c r="F8" s="48">
+      <c r="F8" s="36">
         <f>AVERAGE('2560'!F184:F214)</f>
         <v>24.522258064516119</v>
       </c>
@@ -9112,7 +9115,7 @@
         <f>AVERAGE('2560'!E215:E245)</f>
         <v>19.946451612903232</v>
       </c>
-      <c r="F9" s="48">
+      <c r="F9" s="36">
         <f>AVERAGE('2560'!F215:F245)</f>
         <v>24.986774193548403</v>
       </c>
@@ -9137,7 +9140,7 @@
         <f>AVERAGE('2560'!E246:E275)</f>
         <v>20.253333333333341</v>
       </c>
-      <c r="F10" s="48">
+      <c r="F10" s="36">
         <f>AVERAGE('2560'!F246:F275)</f>
         <v>25.456666666666671</v>
       </c>
@@ -9162,7 +9165,7 @@
         <f>AVERAGE('2560'!E276:E306)</f>
         <v>20.136774193548391</v>
       </c>
-      <c r="F11" s="48">
+      <c r="F11" s="36">
         <f>AVERAGE('2560'!F276:F306)</f>
         <v>25.931935483870959</v>
       </c>
@@ -9187,7 +9190,7 @@
         <f>AVERAGE('2560'!E307:E336)</f>
         <v>20.719999999999995</v>
       </c>
-      <c r="F12" s="48">
+      <c r="F12" s="36">
         <f>AVERAGE('2560'!F307:F336)</f>
         <v>26.456666666666649</v>
       </c>
@@ -9212,7 +9215,7 @@
         <f>AVERAGE('2560'!E337:E367)</f>
         <v>20.71096774193548</v>
       </c>
-      <c r="F13" s="49">
+      <c r="F13" s="37">
         <f>AVERAGE('2560'!F337:F367)</f>
         <v>26.699677419354838</v>
       </c>
